--- a/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
+++ b/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -103,7 +103,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>8e42920a300cd254763b6c7194cbbe494957a259</t>
+    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,14 +113,11 @@
     <t>Chrome browser on Saucelabs must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test case for MAC OS
+    <t xml:space="preserve">- Upload test results for MAC OS
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Connect to RemoteWebDriver at "https://" + USERNAME + ":" + ACCESS_KEY + "@ondemand.saucelabs.com:443/wd/hub";</t>
@@ -699,19 +696,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44551.59229166667</v>
+        <v>44552.59229166667</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -747,19 +744,19 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -767,19 +764,19 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
+++ b/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
+    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on Saucelabs must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test results for MAC OS
+    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
 </t>
   </si>
   <si>

--- a/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
+++ b/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
+    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on Saucelabs must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
+    <t xml:space="preserve">- Add Linux test results
 </t>
   </si>
   <si>

--- a/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
+++ b/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
+    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,8 +113,7 @@
     <t>Chrome browser on Saucelabs must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add Linux test results
-</t>
+    <t>Delete advance.md</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
+++ b/Reports/MacOS/automation/remote/SaucelabsTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
+    <t>76ebaf2b7f0ed251d3b47f8a6ef279cd00691a08</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on Saucelabs must close successfully.</t>
   </si>
   <si>
-    <t>Delete advance.md</t>
+    <t>Update README.md</t>
   </si>
   <si>
     <t>Pass</t>
